--- a/history/orders.xlsx
+++ b/history/orders.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="94">
   <si>
     <t>userName</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>duy4</t>
+  </si>
+  <si>
+    <t>2024-01-21</t>
   </si>
 </sst>
 </file>
@@ -656,7 +659,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1612AC2E-97BA-40B3-B900-19A1F78766D6}">
-  <dimension ref="A1:H360"/>
+  <dimension ref="A1:H367"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
       <selection activeCell="G168" sqref="G168"/>
@@ -8951,6 +8954,167 @@
         <v>10</v>
       </c>
     </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>57</v>
+      </c>
+      <c r="B361" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C361" t="s">
+        <v>40</v>
+      </c>
+      <c r="D361" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E361" t="s">
+        <v>93</v>
+      </c>
+      <c r="F361" t="n">
+        <v>594000.0</v>
+      </c>
+      <c r="G361" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>57</v>
+      </c>
+      <c r="B362" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="C362" t="s">
+        <v>40</v>
+      </c>
+      <c r="D362" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="E362" t="s">
+        <v>93</v>
+      </c>
+      <c r="F362" t="n">
+        <v>594000.0</v>
+      </c>
+      <c r="G362" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>57</v>
+      </c>
+      <c r="B363" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="C363" t="s">
+        <v>41</v>
+      </c>
+      <c r="D363" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="E363" t="s">
+        <v>93</v>
+      </c>
+      <c r="F363" t="n">
+        <v>880000.0</v>
+      </c>
+      <c r="G363" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>57</v>
+      </c>
+      <c r="B364" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="C364" t="s">
+        <v>41</v>
+      </c>
+      <c r="D364" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="E364" t="s">
+        <v>93</v>
+      </c>
+      <c r="F364" t="n">
+        <v>880000.0</v>
+      </c>
+      <c r="G364" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>57</v>
+      </c>
+      <c r="B365" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="C365" t="s">
+        <v>41</v>
+      </c>
+      <c r="D365" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="E365" t="s">
+        <v>93</v>
+      </c>
+      <c r="F365" t="n">
+        <v>880000.0</v>
+      </c>
+      <c r="G365" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>57</v>
+      </c>
+      <c r="B366" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="C366" t="s">
+        <v>42</v>
+      </c>
+      <c r="D366" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E366" t="s">
+        <v>93</v>
+      </c>
+      <c r="F366" t="n">
+        <v>770000.0</v>
+      </c>
+      <c r="G366" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>57</v>
+      </c>
+      <c r="B367" t="n">
+        <v>65.0</v>
+      </c>
+      <c r="C367" t="s">
+        <v>42</v>
+      </c>
+      <c r="D367" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="E367" t="s">
+        <v>93</v>
+      </c>
+      <c r="F367" t="n">
+        <v>770000.0</v>
+      </c>
+      <c r="G367" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/history/orders.xlsx
+++ b/history/orders.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="95">
   <si>
     <t>userName</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>2024-01-21</t>
+  </si>
+  <si>
+    <t>2024-02-19</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1612AC2E-97BA-40B3-B900-19A1F78766D6}">
-  <dimension ref="A1:H367"/>
+  <dimension ref="A1:H368"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
       <selection activeCell="G168" sqref="G168"/>
@@ -9115,6 +9118,29 @@
         <v>58</v>
       </c>
     </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>92</v>
+      </c>
+      <c r="B368" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C368" t="s">
+        <v>8</v>
+      </c>
+      <c r="D368" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E368" t="s">
+        <v>94</v>
+      </c>
+      <c r="F368" t="n">
+        <v>6050000.0</v>
+      </c>
+      <c r="G368" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/history/orders.xlsx
+++ b/history/orders.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="96">
   <si>
     <t>userName</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>2024-02-19</t>
+  </si>
+  <si>
+    <t>duy151001</t>
   </si>
 </sst>
 </file>
@@ -662,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1612AC2E-97BA-40B3-B900-19A1F78766D6}">
-  <dimension ref="A1:H368"/>
+  <dimension ref="A1:H370"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
       <selection activeCell="G168" sqref="G168"/>
@@ -9141,6 +9144,52 @@
         <v>10</v>
       </c>
     </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>95</v>
+      </c>
+      <c r="B369" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="C369" t="s">
+        <v>11</v>
+      </c>
+      <c r="D369" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E369" t="s">
+        <v>94</v>
+      </c>
+      <c r="F369" t="n">
+        <v>5500000.0</v>
+      </c>
+      <c r="G369" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>95</v>
+      </c>
+      <c r="B370" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C370" t="s">
+        <v>8</v>
+      </c>
+      <c r="D370" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E370" t="s">
+        <v>94</v>
+      </c>
+      <c r="F370" t="n">
+        <v>6050000.0</v>
+      </c>
+      <c r="G370" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
